--- a/configs/case14.xlsx
+++ b/configs/case14.xlsx
@@ -841,7 +841,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>21.7</v>
+        <v>67.30317837837838</v>
       </c>
       <c r="C2">
         <v>14</v>
@@ -852,7 +852,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>94.2</v>
+        <v>292.1640277992278</v>
       </c>
       <c r="C3">
         <v>14</v>
@@ -863,7 +863,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>47.8</v>
+        <v>148.2530841698842</v>
       </c>
       <c r="C4">
         <v>14</v>
@@ -874,7 +874,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>7.6</v>
+        <v>23.57162007722008</v>
       </c>
       <c r="C5">
         <v>14</v>
@@ -885,7 +885,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>11.2</v>
+        <v>34.73712432432432</v>
       </c>
       <c r="C6">
         <v>14</v>
@@ -896,7 +896,7 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>29.5</v>
+        <v>91.49510424710425</v>
       </c>
       <c r="C7">
         <v>14</v>
@@ -907,7 +907,7 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>9</v>
+        <v>27.91376061776062</v>
       </c>
       <c r="C8">
         <v>14</v>
@@ -918,7 +918,7 @@
         <v>11</v>
       </c>
       <c r="B9">
-        <v>3.5</v>
+        <v>10.85535135135135</v>
       </c>
       <c r="C9">
         <v>14</v>
@@ -929,7 +929,7 @@
         <v>12</v>
       </c>
       <c r="B10">
-        <v>6.1</v>
+        <v>18.91932664092664</v>
       </c>
       <c r="C10">
         <v>14</v>
@@ -940,7 +940,7 @@
         <v>13</v>
       </c>
       <c r="B11">
-        <v>13.5</v>
+        <v>41.87064092664093</v>
       </c>
       <c r="C11">
         <v>14</v>
@@ -951,7 +951,7 @@
         <v>14</v>
       </c>
       <c r="B12">
-        <v>14.9</v>
+        <v>46.21278146718147</v>
       </c>
       <c r="C12">
         <v>14</v>
@@ -1419,7 +1419,7 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>5</v>
+        <v>38.62</v>
       </c>
       <c r="C2">
         <v>7</v>
@@ -1430,7 +1430,7 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>7</v>
+        <v>38.62</v>
       </c>
       <c r="C3">
         <v>7</v>
@@ -1465,7 +1465,7 @@
         <v>11</v>
       </c>
       <c r="B2">
-        <v>8</v>
+        <v>77.24000000000001</v>
       </c>
       <c r="C2">
         <v>7</v>
@@ -1476,7 +1476,7 @@
         <v>14</v>
       </c>
       <c r="B3">
-        <v>10</v>
+        <v>77.24000000000001</v>
       </c>
       <c r="C3">
         <v>7</v>

--- a/configs/case14.xlsx
+++ b/configs/case14.xlsx
@@ -1001,7 +1001,7 @@
         <v>0.05917</v>
       </c>
       <c r="D2">
-        <v>100</v>
+        <v>224.6719102050716</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -1021,7 +1021,7 @@
         <v>0.22304</v>
       </c>
       <c r="D3">
-        <v>100</v>
+        <v>123.5180316974226</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -1041,7 +1041,7 @@
         <v>0.19797</v>
       </c>
       <c r="D4">
-        <v>100</v>
+        <v>163.6529484297137</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -1061,7 +1061,7 @@
         <v>0.17632</v>
       </c>
       <c r="D5">
-        <v>100</v>
+        <v>110.9306739497873</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -1081,7 +1081,7 @@
         <v>0.17388</v>
       </c>
       <c r="D6">
-        <v>100</v>
+        <v>87.35861355722125</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -1101,7 +1101,7 @@
         <v>0.17103</v>
       </c>
       <c r="D7">
-        <v>100</v>
+        <v>88.3995945249888</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -1121,7 +1121,7 @@
         <v>0.04211</v>
       </c>
       <c r="D8">
-        <v>100</v>
+        <v>156.8971338176026</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -1141,7 +1141,7 @@
         <v>0.20912</v>
       </c>
       <c r="D9">
-        <v>100</v>
+        <v>63.73160722074085</v>
       </c>
       <c r="E9">
         <v>0.978</v>
@@ -1161,7 +1161,7 @@
         <v>0.55618</v>
       </c>
       <c r="D10">
-        <v>100</v>
+        <v>37.19434519237096</v>
       </c>
       <c r="E10">
         <v>0.969</v>
@@ -1181,7 +1181,7 @@
         <v>0.25202</v>
       </c>
       <c r="D11">
-        <v>100</v>
+        <v>91.28057735120154</v>
       </c>
       <c r="E11">
         <v>0.9320000000000001</v>
@@ -1201,7 +1201,7 @@
         <v>0.1989</v>
       </c>
       <c r="D12">
-        <v>100</v>
+        <v>40.46368192545273</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -1221,7 +1221,7 @@
         <v>0.25581</v>
       </c>
       <c r="D13">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -1241,7 +1241,7 @@
         <v>0.13027</v>
       </c>
       <c r="D14">
-        <v>100</v>
+        <v>47.62266789740988</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -1261,7 +1261,7 @@
         <v>0.17615</v>
       </c>
       <c r="D15">
-        <v>100</v>
+        <v>46.55482722092206</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -1281,7 +1281,7 @@
         <v>0.11001</v>
       </c>
       <c r="D16">
-        <v>100</v>
+        <v>73.94998687663107</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -1301,7 +1301,7 @@
         <v>0.08450000000000001</v>
       </c>
       <c r="D17">
-        <v>100</v>
+        <v>37.18479528699383</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -1321,7 +1321,7 @@
         <v>0.27038</v>
       </c>
       <c r="D18">
-        <v>100</v>
+        <v>36.29979131206111</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -1341,7 +1341,7 @@
         <v>0.19207</v>
       </c>
       <c r="D19">
-        <v>100</v>
+        <v>62.28214508009262</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -1361,7 +1361,7 @@
         <v>0.19988</v>
       </c>
       <c r="D20">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="E20">
         <v>1</v>
@@ -1381,7 +1381,7 @@
         <v>0.34802</v>
       </c>
       <c r="D21">
-        <v>100</v>
+        <v>36.04923453601647</v>
       </c>
       <c r="E21">
         <v>1</v>

--- a/configs/case14.xlsx
+++ b/configs/case14.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="29">
   <si>
     <t>baseMVA</t>
   </si>
@@ -43,37 +43,46 @@
     <t>pgmin</t>
   </si>
   <si>
-    <t>cgf</t>
-  </si>
-  <si>
-    <t>cgv</t>
-  </si>
-  <si>
-    <t>cgsu</t>
-  </si>
-  <si>
-    <t>cgsd</t>
-  </si>
-  <si>
-    <t>cgstore</t>
-  </si>
-  <si>
-    <t>rgu</t>
-  </si>
-  <si>
-    <t>rgd</t>
-  </si>
-  <si>
-    <t>rgsu</t>
-  </si>
-  <si>
-    <t>rgsd</t>
+    <t>cf</t>
+  </si>
+  <si>
+    <t>cv</t>
+  </si>
+  <si>
+    <t>cv2</t>
+  </si>
+  <si>
+    <t>csu</t>
+  </si>
+  <si>
+    <t>csd</t>
+  </si>
+  <si>
+    <t>ces</t>
+  </si>
+  <si>
+    <t>ru</t>
+  </si>
+  <si>
+    <t>rd</t>
+  </si>
+  <si>
+    <t>rsu</t>
+  </si>
+  <si>
+    <t>rsd</t>
+  </si>
+  <si>
+    <t>rued</t>
+  </si>
+  <si>
+    <t>rded</t>
   </si>
   <si>
     <t>default</t>
   </si>
   <si>
-    <t>clshed</t>
+    <t>cls</t>
   </si>
   <si>
     <t>fbus</t>
@@ -94,10 +103,10 @@
     <t>shift_angle</t>
   </si>
   <si>
-    <t>csshed</t>
-  </si>
-  <si>
-    <t>cwshed</t>
+    <t>csc</t>
+  </si>
+  <si>
+    <t>cwc</t>
   </si>
 </sst>
 </file>
@@ -578,13 +587,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:O6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -621,8 +630,17 @@
       <c r="L1" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2">
         <v>1</v>
       </c>
@@ -639,16 +657,16 @@
         <v>0.2</v>
       </c>
       <c r="F2">
+        <v>0.5</v>
+      </c>
+      <c r="G2">
         <v>20</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>0.5</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>3.5</v>
-      </c>
-      <c r="I2">
-        <v>166.2</v>
       </c>
       <c r="J2">
         <v>166.2</v>
@@ -659,8 +677,17 @@
       <c r="L2">
         <v>166.2</v>
       </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="M2">
+        <v>166.2</v>
+      </c>
+      <c r="N2">
+        <v>33.24</v>
+      </c>
+      <c r="O2">
+        <v>66.48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3">
         <v>2</v>
       </c>
@@ -677,16 +704,16 @@
         <v>0.1</v>
       </c>
       <c r="F3">
+        <v>0.4</v>
+      </c>
+      <c r="G3">
         <v>18</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>0.2</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>3.5</v>
-      </c>
-      <c r="I3">
-        <v>70</v>
       </c>
       <c r="J3">
         <v>70</v>
@@ -697,8 +724,17 @@
       <c r="L3">
         <v>70</v>
       </c>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="M3">
+        <v>70</v>
+      </c>
+      <c r="N3">
+        <v>14</v>
+      </c>
+      <c r="O3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4">
         <v>3</v>
       </c>
@@ -715,16 +751,16 @@
         <v>0.5</v>
       </c>
       <c r="F4">
+        <v>0.4</v>
+      </c>
+      <c r="G4">
         <v>10</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>0.15</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>3.5</v>
-      </c>
-      <c r="I4">
-        <v>50</v>
       </c>
       <c r="J4">
         <v>50</v>
@@ -735,8 +771,17 @@
       <c r="L4">
         <v>50</v>
       </c>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="M4">
+        <v>50</v>
+      </c>
+      <c r="N4">
+        <v>10</v>
+      </c>
+      <c r="O4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5">
         <v>6</v>
       </c>
@@ -753,16 +798,16 @@
         <v>0.6</v>
       </c>
       <c r="F5">
+        <v>0.3</v>
+      </c>
+      <c r="G5">
         <v>5</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>0.15</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>3.5</v>
-      </c>
-      <c r="I5">
-        <v>50</v>
       </c>
       <c r="J5">
         <v>50</v>
@@ -773,8 +818,17 @@
       <c r="L5">
         <v>50</v>
       </c>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="M5">
+        <v>50</v>
+      </c>
+      <c r="N5">
+        <v>10</v>
+      </c>
+      <c r="O5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6">
         <v>8</v>
       </c>
@@ -791,16 +845,16 @@
         <v>0.7</v>
       </c>
       <c r="F6">
+        <v>0.6</v>
+      </c>
+      <c r="G6">
         <v>5</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>0.15</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>3.5</v>
-      </c>
-      <c r="I6">
-        <v>50</v>
       </c>
       <c r="J6">
         <v>50</v>
@@ -810,6 +864,15 @@
       </c>
       <c r="L6">
         <v>50</v>
+      </c>
+      <c r="M6">
+        <v>50</v>
+      </c>
+      <c r="N6">
+        <v>10</v>
+      </c>
+      <c r="O6">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -830,10 +893,10 @@
         <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -972,22 +1035,22 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -1001,7 +1064,7 @@
         <v>0.05917</v>
       </c>
       <c r="D2">
-        <v>224.6719102050716</v>
+        <v>100</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -1021,7 +1084,7 @@
         <v>0.22304</v>
       </c>
       <c r="D3">
-        <v>123.5180316974226</v>
+        <v>100</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -1041,7 +1104,7 @@
         <v>0.19797</v>
       </c>
       <c r="D4">
-        <v>163.6529484297137</v>
+        <v>100</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -1061,7 +1124,7 @@
         <v>0.17632</v>
       </c>
       <c r="D5">
-        <v>110.9306739497873</v>
+        <v>100</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -1081,7 +1144,7 @@
         <v>0.17388</v>
       </c>
       <c r="D6">
-        <v>87.35861355722125</v>
+        <v>100</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -1101,7 +1164,7 @@
         <v>0.17103</v>
       </c>
       <c r="D7">
-        <v>88.3995945249888</v>
+        <v>100</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -1121,7 +1184,7 @@
         <v>0.04211</v>
       </c>
       <c r="D8">
-        <v>156.8971338176026</v>
+        <v>100</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -1141,7 +1204,7 @@
         <v>0.20912</v>
       </c>
       <c r="D9">
-        <v>63.73160722074085</v>
+        <v>100</v>
       </c>
       <c r="E9">
         <v>0.978</v>
@@ -1161,7 +1224,7 @@
         <v>0.55618</v>
       </c>
       <c r="D10">
-        <v>37.19434519237096</v>
+        <v>100</v>
       </c>
       <c r="E10">
         <v>0.969</v>
@@ -1181,7 +1244,7 @@
         <v>0.25202</v>
       </c>
       <c r="D11">
-        <v>91.28057735120154</v>
+        <v>100</v>
       </c>
       <c r="E11">
         <v>0.9320000000000001</v>
@@ -1201,7 +1264,7 @@
         <v>0.1989</v>
       </c>
       <c r="D12">
-        <v>40.46368192545273</v>
+        <v>100</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -1221,7 +1284,7 @@
         <v>0.25581</v>
       </c>
       <c r="D13">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -1241,7 +1304,7 @@
         <v>0.13027</v>
       </c>
       <c r="D14">
-        <v>47.62266789740988</v>
+        <v>100</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -1261,7 +1324,7 @@
         <v>0.17615</v>
       </c>
       <c r="D15">
-        <v>46.55482722092206</v>
+        <v>100</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -1281,7 +1344,7 @@
         <v>0.11001</v>
       </c>
       <c r="D16">
-        <v>73.94998687663107</v>
+        <v>100</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -1301,7 +1364,7 @@
         <v>0.08450000000000001</v>
       </c>
       <c r="D17">
-        <v>37.18479528699383</v>
+        <v>100</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -1321,7 +1384,7 @@
         <v>0.27038</v>
       </c>
       <c r="D18">
-        <v>36.29979131206111</v>
+        <v>100</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -1341,7 +1404,7 @@
         <v>0.19207</v>
       </c>
       <c r="D19">
-        <v>62.28214508009262</v>
+        <v>100</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -1361,7 +1424,7 @@
         <v>0.19988</v>
       </c>
       <c r="D20">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="E20">
         <v>1</v>
@@ -1381,7 +1444,7 @@
         <v>0.34802</v>
       </c>
       <c r="D21">
-        <v>36.04923453601647</v>
+        <v>100</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -1408,10 +1471,10 @@
         <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -1454,10 +1517,10 @@
         <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:3">

--- a/configs/case14.xlsx
+++ b/configs/case14.xlsx
@@ -666,7 +666,7 @@
         <v>0.5</v>
       </c>
       <c r="I2">
-        <v>3.5</v>
+        <v>14</v>
       </c>
       <c r="J2">
         <v>166.2</v>
@@ -713,7 +713,7 @@
         <v>0.2</v>
       </c>
       <c r="I3">
-        <v>3.5</v>
+        <v>14</v>
       </c>
       <c r="J3">
         <v>70</v>
@@ -760,7 +760,7 @@
         <v>0.15</v>
       </c>
       <c r="I4">
-        <v>3.5</v>
+        <v>14</v>
       </c>
       <c r="J4">
         <v>50</v>
@@ -792,7 +792,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E5">
         <v>0.6</v>
@@ -807,7 +807,7 @@
         <v>0.15</v>
       </c>
       <c r="I5">
-        <v>3.5</v>
+        <v>14</v>
       </c>
       <c r="J5">
         <v>50</v>
@@ -839,7 +839,7 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E6">
         <v>0.7</v>
@@ -854,7 +854,7 @@
         <v>0.15</v>
       </c>
       <c r="I6">
-        <v>3.5</v>
+        <v>14</v>
       </c>
       <c r="J6">
         <v>50</v>
@@ -907,7 +907,7 @@
         <v>67.30317837837838</v>
       </c>
       <c r="C2">
-        <v>14</v>
+        <v>7000</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -918,7 +918,7 @@
         <v>292.1640277992278</v>
       </c>
       <c r="C3">
-        <v>14</v>
+        <v>7000</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -929,7 +929,7 @@
         <v>148.2530841698842</v>
       </c>
       <c r="C4">
-        <v>14</v>
+        <v>7000</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -940,7 +940,7 @@
         <v>23.57162007722008</v>
       </c>
       <c r="C5">
-        <v>14</v>
+        <v>7000</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -951,7 +951,7 @@
         <v>34.73712432432432</v>
       </c>
       <c r="C6">
-        <v>14</v>
+        <v>7000</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -962,7 +962,7 @@
         <v>91.49510424710425</v>
       </c>
       <c r="C7">
-        <v>14</v>
+        <v>7000</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -973,7 +973,7 @@
         <v>27.91376061776062</v>
       </c>
       <c r="C8">
-        <v>14</v>
+        <v>7000</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -984,7 +984,7 @@
         <v>10.85535135135135</v>
       </c>
       <c r="C9">
-        <v>14</v>
+        <v>7000</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -995,7 +995,7 @@
         <v>18.91932664092664</v>
       </c>
       <c r="C10">
-        <v>14</v>
+        <v>7000</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1006,7 +1006,7 @@
         <v>41.87064092664093</v>
       </c>
       <c r="C11">
-        <v>14</v>
+        <v>7000</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1017,7 +1017,7 @@
         <v>46.21278146718147</v>
       </c>
       <c r="C12">
-        <v>14</v>
+        <v>7000</v>
       </c>
     </row>
   </sheetData>
@@ -1064,7 +1064,7 @@
         <v>0.05917</v>
       </c>
       <c r="D2">
-        <v>100</v>
+        <v>228.5285453352676</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -1084,7 +1084,7 @@
         <v>0.22304</v>
       </c>
       <c r="D3">
-        <v>100</v>
+        <v>111.4979185416422</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -1104,7 +1104,7 @@
         <v>0.19797</v>
       </c>
       <c r="D4">
-        <v>100</v>
+        <v>150.1133092547107</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -1124,7 +1124,7 @@
         <v>0.17632</v>
       </c>
       <c r="D5">
-        <v>100</v>
+        <v>100.6879286063638</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -1144,7 +1144,7 @@
         <v>0.17388</v>
       </c>
       <c r="D6">
-        <v>100</v>
+        <v>67.63852741019079</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -1164,7 +1164,7 @@
         <v>0.17103</v>
       </c>
       <c r="D7">
-        <v>100</v>
+        <v>86.94096400143722</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -1184,7 +1184,7 @@
         <v>0.04211</v>
       </c>
       <c r="D8">
-        <v>100</v>
+        <v>156.7878826738055</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -1204,7 +1204,7 @@
         <v>0.20912</v>
       </c>
       <c r="D9">
-        <v>100</v>
+        <v>41.19523410678958</v>
       </c>
       <c r="E9">
         <v>0.978</v>
@@ -1224,7 +1224,7 @@
         <v>0.55618</v>
       </c>
       <c r="D10">
-        <v>100</v>
+        <v>24.53714727329093</v>
       </c>
       <c r="E10">
         <v>0.969</v>
@@ -1244,7 +1244,7 @@
         <v>0.25202</v>
       </c>
       <c r="D11">
-        <v>100</v>
+        <v>47.32226385840444</v>
       </c>
       <c r="E11">
         <v>0.9320000000000001</v>
@@ -1264,7 +1264,7 @@
         <v>0.1989</v>
       </c>
       <c r="D12">
-        <v>100</v>
+        <v>42.74857738604919</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -1284,7 +1284,7 @@
         <v>0.25581</v>
       </c>
       <c r="D13">
-        <v>100</v>
+        <v>24.71291771887185</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -1304,7 +1304,7 @@
         <v>0.13027</v>
       </c>
       <c r="D14">
-        <v>100</v>
+        <v>57.54240127617575</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -1324,7 +1324,7 @@
         <v>0.17615</v>
       </c>
       <c r="D15">
-        <v>100</v>
+        <v>119.9999999999018</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -1344,7 +1344,7 @@
         <v>0.11001</v>
       </c>
       <c r="D16">
-        <v>100</v>
+        <v>112.2727955117741</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -1364,7 +1364,7 @@
         <v>0.08450000000000001</v>
       </c>
       <c r="D17">
-        <v>100</v>
+        <v>40.64761301035739</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -1384,7 +1384,7 @@
         <v>0.27038</v>
       </c>
       <c r="D18">
-        <v>100</v>
+        <v>51.85941754096524</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -1404,7 +1404,7 @@
         <v>0.19207</v>
       </c>
       <c r="D19">
-        <v>100</v>
+        <v>68.9448186335392</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -1424,7 +1424,7 @@
         <v>0.19988</v>
       </c>
       <c r="D20">
-        <v>100</v>
+        <v>11.58940003712641</v>
       </c>
       <c r="E20">
         <v>1</v>
@@ -1444,7 +1444,7 @@
         <v>0.34802</v>
       </c>
       <c r="D21">
-        <v>100</v>
+        <v>37.03360809999141</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -1485,7 +1485,7 @@
         <v>38.62</v>
       </c>
       <c r="C2">
-        <v>7</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1496,7 +1496,7 @@
         <v>38.62</v>
       </c>
       <c r="C3">
-        <v>7</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -1531,7 +1531,7 @@
         <v>77.24000000000001</v>
       </c>
       <c r="C2">
-        <v>7</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1542,7 +1542,7 @@
         <v>77.24000000000001</v>
       </c>
       <c r="C3">
-        <v>7</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/configs/case14.xlsx
+++ b/configs/case14.xlsx
@@ -657,7 +657,7 @@
         <v>0.2</v>
       </c>
       <c r="F2">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="G2">
         <v>20</v>
@@ -704,7 +704,7 @@
         <v>0.1</v>
       </c>
       <c r="F3">
-        <v>0.4</v>
+        <v>0.04</v>
       </c>
       <c r="G3">
         <v>18</v>
@@ -751,7 +751,7 @@
         <v>0.5</v>
       </c>
       <c r="F4">
-        <v>0.4</v>
+        <v>0.04</v>
       </c>
       <c r="G4">
         <v>10</v>
@@ -798,7 +798,7 @@
         <v>0.6</v>
       </c>
       <c r="F5">
-        <v>0.3</v>
+        <v>0.03</v>
       </c>
       <c r="G5">
         <v>5</v>
@@ -845,7 +845,7 @@
         <v>0.7</v>
       </c>
       <c r="F6">
-        <v>0.6</v>
+        <v>0.06</v>
       </c>
       <c r="G6">
         <v>5</v>
@@ -904,7 +904,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>67.30317837837838</v>
+        <v>63.09672972972972</v>
       </c>
       <c r="C2">
         <v>7000</v>
@@ -915,7 +915,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>292.1640277992278</v>
+        <v>273.9037760617761</v>
       </c>
       <c r="C3">
         <v>7000</v>
@@ -926,7 +926,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>148.2530841698842</v>
+        <v>138.9872664092664</v>
       </c>
       <c r="C4">
         <v>7000</v>
@@ -937,7 +937,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>23.57162007722008</v>
+        <v>22.09839382239382</v>
       </c>
       <c r="C5">
         <v>7000</v>
@@ -948,7 +948,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>34.73712432432432</v>
+        <v>32.56605405405405</v>
       </c>
       <c r="C6">
         <v>7000</v>
@@ -959,7 +959,7 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>91.49510424710425</v>
+        <v>85.77666023166023</v>
       </c>
       <c r="C7">
         <v>7000</v>
@@ -970,7 +970,7 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>27.91376061776062</v>
+        <v>26.16915057915058</v>
       </c>
       <c r="C8">
         <v>7000</v>
@@ -981,7 +981,7 @@
         <v>11</v>
       </c>
       <c r="B9">
-        <v>10.85535135135135</v>
+        <v>10.17689189189189</v>
       </c>
       <c r="C9">
         <v>7000</v>
@@ -992,7 +992,7 @@
         <v>12</v>
       </c>
       <c r="B10">
-        <v>18.91932664092664</v>
+        <v>17.73686872586872</v>
       </c>
       <c r="C10">
         <v>7000</v>
@@ -1003,7 +1003,7 @@
         <v>13</v>
       </c>
       <c r="B11">
-        <v>41.87064092664093</v>
+        <v>39.25372586872587</v>
       </c>
       <c r="C11">
         <v>7000</v>
@@ -1014,7 +1014,7 @@
         <v>14</v>
       </c>
       <c r="B12">
-        <v>46.21278146718147</v>
+        <v>43.32448262548263</v>
       </c>
       <c r="C12">
         <v>7000</v>
@@ -1064,7 +1064,7 @@
         <v>0.05917</v>
       </c>
       <c r="D2">
-        <v>228.5285453352676</v>
+        <v>100</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -1084,7 +1084,7 @@
         <v>0.22304</v>
       </c>
       <c r="D3">
-        <v>111.4979185416422</v>
+        <v>100</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -1104,7 +1104,7 @@
         <v>0.19797</v>
       </c>
       <c r="D4">
-        <v>150.1133092547107</v>
+        <v>100</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -1124,7 +1124,7 @@
         <v>0.17632</v>
       </c>
       <c r="D5">
-        <v>100.6879286063638</v>
+        <v>100</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -1144,7 +1144,7 @@
         <v>0.17388</v>
       </c>
       <c r="D6">
-        <v>67.63852741019079</v>
+        <v>100</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -1164,7 +1164,7 @@
         <v>0.17103</v>
       </c>
       <c r="D7">
-        <v>86.94096400143722</v>
+        <v>100</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -1184,7 +1184,7 @@
         <v>0.04211</v>
       </c>
       <c r="D8">
-        <v>156.7878826738055</v>
+        <v>100</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -1204,7 +1204,7 @@
         <v>0.20912</v>
       </c>
       <c r="D9">
-        <v>41.19523410678958</v>
+        <v>100</v>
       </c>
       <c r="E9">
         <v>0.978</v>
@@ -1224,7 +1224,7 @@
         <v>0.55618</v>
       </c>
       <c r="D10">
-        <v>24.53714727329093</v>
+        <v>100</v>
       </c>
       <c r="E10">
         <v>0.969</v>
@@ -1244,7 +1244,7 @@
         <v>0.25202</v>
       </c>
       <c r="D11">
-        <v>47.32226385840444</v>
+        <v>100</v>
       </c>
       <c r="E11">
         <v>0.9320000000000001</v>
@@ -1264,7 +1264,7 @@
         <v>0.1989</v>
       </c>
       <c r="D12">
-        <v>42.74857738604919</v>
+        <v>100</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -1284,7 +1284,7 @@
         <v>0.25581</v>
       </c>
       <c r="D13">
-        <v>24.71291771887185</v>
+        <v>100</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -1304,7 +1304,7 @@
         <v>0.13027</v>
       </c>
       <c r="D14">
-        <v>57.54240127617575</v>
+        <v>100</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -1324,7 +1324,7 @@
         <v>0.17615</v>
       </c>
       <c r="D15">
-        <v>119.9999999999018</v>
+        <v>100</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -1344,7 +1344,7 @@
         <v>0.11001</v>
       </c>
       <c r="D16">
-        <v>112.2727955117741</v>
+        <v>100</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -1364,7 +1364,7 @@
         <v>0.08450000000000001</v>
       </c>
       <c r="D17">
-        <v>40.64761301035739</v>
+        <v>100</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -1384,7 +1384,7 @@
         <v>0.27038</v>
       </c>
       <c r="D18">
-        <v>51.85941754096524</v>
+        <v>100</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -1404,7 +1404,7 @@
         <v>0.19207</v>
       </c>
       <c r="D19">
-        <v>68.9448186335392</v>
+        <v>100</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -1424,7 +1424,7 @@
         <v>0.19988</v>
       </c>
       <c r="D20">
-        <v>11.58940003712641</v>
+        <v>100</v>
       </c>
       <c r="E20">
         <v>1</v>
@@ -1444,7 +1444,7 @@
         <v>0.34802</v>
       </c>
       <c r="D21">
-        <v>37.03360809999141</v>
+        <v>100</v>
       </c>
       <c r="E21">
         <v>1</v>
